--- a/WorkBot/main/backend/orders/OrderFiles/Equal Exchange/Equal Exchange_DOWNTOWN_20250307.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Equal Exchange/Equal Exchange_DOWNTOWN_20250307.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,39 +451,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10034</t>
+          <t>10029</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Equal Exchange - Black Silk Espresso</t>
+          <t>Equal Exchange - Espresso, Decaf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71.50</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>214.50</t>
+          <t>94.00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10029</t>
+          <t>40304</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Equal Exchange - Espresso, Decaf</t>
+          <t>Filter - Coffee</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -493,64 +493,10 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>17.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>10400</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Equal Exchange - One World</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>71.50</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>214.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>40304</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Filter - Coffee</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>17.50</t>
         </is>
